--- a/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,58 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2.5 - 2x_1 + 1.2426834319919462y_1 + 0.973021894699273y_2</t>
-  </si>
-  <si>
-    <t>-0.4312514208126863</t>
+    <t>7.994501225455026 - 2x_1 + 1.12805778384666y_1 - 0.17512553170551792y_2</t>
+  </si>
+  <si>
+    <t>-5.494501225455026</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.4508014206716149</t>
-  </si>
-  <si>
-    <t>0.3086455790684324</t>
-  </si>
-  <si>
-    <t>0.23007633889679668</t>
-  </si>
-  <si>
-    <t>-2 + x_1 - 3x_2 - 0.024947675891387504y_1 + 0.7971748200874206y_2</t>
-  </si>
-  <si>
-    <t>-1.1124219799256045</t>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3.4975717805348214 + x_1 - 3x_2 - 0.2730288181213387y_1 - 0.758694351969956y_2</t>
+  </si>
+  <si>
+    <t>-5.497571780534821</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.22014013961262302</t>
-  </si>
-  <si>
-    <t>0.2732678594234905</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-2 + x_1 + x_2 - 0.30998857600549784y_1 - 2.520214266566801y_2</t>
-  </si>
-  <si>
-    <t>-0.5070244456688646</t>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>-3.2</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>-12.317746389472813 + x_1 + x_2 + 0.13628043375465734y_1 + 0.8778400418589355y_2</t>
+  </si>
+  <si>
+    <t>10.267746389472812</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.2577161402299323</t>
-  </si>
-  <si>
-    <t>-0.7023380463896328</t>
-  </si>
-  <si>
-    <t>-0.5228069194532127</t>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>1.6</t>
   </si>
   <si>
     <t>x_1</t>
@@ -132,40 +132,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>2.916744737742059</t>
-  </si>
-  <si>
-    <t>0.841164425538054</t>
-  </si>
-  <si>
-    <t>1.8056768518272297</t>
-  </si>
-  <si>
-    <t>0.6766069201123486</t>
+    <t>6.65</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>3.2</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.525177587590203</t>
-  </si>
-  <si>
-    <t>-0.9646299353327257</t>
+    <t>3.059815510164544</t>
+  </si>
+  <si>
+    <t>-1.26740196087917</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>3.046361345103007</t>
-  </si>
-  <si>
-    <t>0.5221416246601045</t>
-  </si>
-  <si>
-    <t>-1.0944481203522762</t>
-  </si>
-  <si>
-    <t>-2.288203527271124</t>
+    <t>24.9</t>
+  </si>
+  <si>
+    <t>-10.900000000000002</t>
+  </si>
+  <si>
+    <t>-12.695154186581279</t>
+  </si>
+  <si>
+    <t>-0.9399186218063611</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -789,12 +789,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.025135686845064953</v>
+        <v>0.27629937218188366</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.20435371329866248</v>
+        <v>1.7797613770322578</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,58 +66,55 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>7.994501225455026 - 2x_1 + 1.12805778384666y_1 - 0.17512553170551792y_2</t>
-  </si>
-  <si>
-    <t>-5.494501225455026</t>
+    <t>-34.13048780487805 - 2x_1 + 7.219512195121951y_1 + 3.975609756097562y_2</t>
+  </si>
+  <si>
+    <t>36.63048780487805</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>10.0</t>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>7.800000000000001</t>
+  </si>
+  <si>
+    <t>1.8470720754249346 + x_1 - 3x_2 - 0.4685212856658182y_1 + 0.6251829714673454y_2</t>
+  </si>
+  <si>
+    <t>-3.8470720754249346</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>8.100000000000001</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>3.4975717805348214 + x_1 - 3x_2 - 0.2730288181213387y_1 - 0.758694351969956y_2</t>
-  </si>
-  <si>
-    <t>-5.497571780534821</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>-3.2</t>
-  </si>
-  <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>-12.317746389472813 + x_1 + x_2 + 0.13628043375465734y_1 + 0.8778400418589355y_2</t>
-  </si>
-  <si>
-    <t>10.267746389472812</t>
+    <t>-3.9499999999999997 + x_1 + x_2</t>
+  </si>
+  <si>
+    <t>1.7999999999999998</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>1.6</t>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>6.5</t>
   </si>
   <si>
     <t>x_1</t>
@@ -132,40 +129,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>6.65</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>3.2</t>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>2.15</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.059815510164544</t>
-  </si>
-  <si>
-    <t>-1.26740196087917</t>
+    <t>-2.5090625502178368</t>
+  </si>
+  <si>
+    <t>-5.37925004017427</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>24.9</t>
-  </si>
-  <si>
-    <t>-10.900000000000002</t>
-  </si>
-  <si>
-    <t>-12.695154186581279</t>
-  </si>
-  <si>
-    <t>-0.9399186218063611</t>
+    <t>-11.000000000000002</t>
+  </si>
+  <si>
+    <t>16.800000000000004</t>
+  </si>
+  <si>
+    <t>-2.4805873422044336</t>
+  </si>
+  <si>
+    <t>-8.24446987376355</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -659,7 +656,7 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -677,30 +674,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -718,17 +715,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -746,27 +743,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -784,17 +781,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.27629937218188366</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1.7797613770322578</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,10 +66,10 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-34.13048780487805 - 2x_1 + 7.219512195121951y_1 + 3.975609756097562y_2</t>
-  </si>
-  <si>
-    <t>36.63048780487805</t>
+    <t>10.077049180327869 - 2x_1 + 0.0983606557377048y_1 - 1.0819672131147542y_2</t>
+  </si>
+  <si>
+    <t>-7.57704918032787</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
@@ -78,45 +78,33 @@
     <t>0.96</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-0.6872950819672126 + x_1 - 3x_2 - 0.0901639344262295y_1 + 0.9918032786885246y_2</t>
+  </si>
+  <si>
+    <t>-1.3127049180327874</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>-6.31 + x_1 + x_2</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
+  </si>
+  <si>
     <t>0.8</t>
   </si>
   <si>
-    <t>7.800000000000001</t>
-  </si>
-  <si>
-    <t>1.8470720754249346 + x_1 - 3x_2 - 0.4685212856658182y_1 + 0.6251829714673454y_2</t>
-  </si>
-  <si>
-    <t>-3.8470720754249346</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>8.100000000000001</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-3.9499999999999997 + x_1 + x_2</t>
-  </si>
-  <si>
-    <t>1.7999999999999998</t>
-  </si>
-  <si>
-    <t>J_Ne_L0_v</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
     <t>x_1</t>
   </si>
   <si>
@@ -129,40 +117,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>2.55</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>2.15</t>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>6.1000000000000005</t>
+  </si>
+  <si>
+    <t>1.55</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-2.5090625502178368</t>
-  </si>
-  <si>
-    <t>-5.37925004017427</t>
+    <t>3.968688524590164</t>
+  </si>
+  <si>
+    <t>-0.6555737704918031</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-11.000000000000002</t>
-  </si>
-  <si>
-    <t>16.800000000000004</t>
-  </si>
-  <si>
-    <t>-2.4805873422044336</t>
-  </si>
-  <si>
-    <t>-8.24446987376355</t>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>-0.5</t>
+  </si>
+  <si>
+    <t>-0.0</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -616,47 +604,47 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -674,30 +662,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -715,17 +703,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -743,27 +731,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -781,17 +769,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.6000000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
